--- a/20240321circuiti2/circuiti_2_dati.xlsx
+++ b/20240321circuiti2/circuiti_2_dati.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RC_vecchio" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="RC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LR" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">R (Kohm)</t>
   </si>
@@ -37,10 +38,31 @@
     <t xml:space="preserve">sigmaVstrumento (Volt)</t>
   </si>
   <si>
-    <t xml:space="preserve">V (V)</t>
+    <t xml:space="preserve">tR (us)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VR (V)</t>
   </si>
   <si>
     <t>sigmaV</t>
+  </si>
+  <si>
+    <t>t(us)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VR (Volt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L (Hr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R (k0hm)</t>
+  </si>
+  <si>
+    <t>T(ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vpp (V)</t>
   </si>
 </sst>
 </file>
@@ -997,382 +1019,892 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="E2" s="4">
+        <v>99</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8.4000000000000004</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.7599999999999998</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7.2000000000000002</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.6399999999999997</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6.1600000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5.6799999999999997</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5.2800000000000002</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4.8799999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>76</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>84</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4.1600000000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>92</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.9199999999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.6000000000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>108</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3.3599999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>116</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3.1200000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>124</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.8799999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>132</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2.6400000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>140</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>148</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>156</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.0800000000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>164</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.9199999999999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>172</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>180</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1.6799999999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>188</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>196</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1.4399999999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>204</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.3600000000000001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>212</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>220</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>240</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.95999999999999996</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>260</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>280</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.64000000000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>300</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>320</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.47999999999999998</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>340</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>360</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.32000000000000001</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>380</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.23999999999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>400</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.23999999999999999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>420</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>440</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>460</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.080000000000000002</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>480</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.080000000000000002</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>500</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView topLeftCell="A42" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.080000000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-1820</v>
+      </c>
+      <c r="C2">
+        <v>47</v>
       </c>
       <c r="D2" s="1">
         <v>0.996</v>
       </c>
-      <c r="E2" s="4">
-        <v>99</v>
-      </c>
-      <c r="F2" s="4">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3"/>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>1.984</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2">
-        <v>8.4000000000000004</v>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>-1780</v>
+      </c>
+      <c r="C3">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>7.7599999999999998</v>
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>-1720</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2">
-        <v>7.2000000000000002</v>
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>-1540</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6.6399999999999997</v>
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>-1360</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>44</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6.1600000000000001</v>
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>-1220</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>52</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5.6799999999999997</v>
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>-1060</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>60</v>
-      </c>
-      <c r="B9" s="2">
-        <v>5.2800000000000002</v>
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>-940</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>68</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4.8799999999999999</v>
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>-800</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>76</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4.5599999999999996</v>
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>-680</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>84</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4.1600000000000001</v>
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>-560</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>92</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3.9199999999999999</v>
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>-440</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>100</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3.6000000000000001</v>
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>-340</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>108</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3.3599999999999999</v>
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>-240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>116</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3.1200000000000001</v>
+        <v>52</v>
+      </c>
+      <c r="B16">
+        <v>-140</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>124</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2.8799999999999999</v>
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>-40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>132</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2.6400000000000001</v>
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>140</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2.48</v>
+        <v>64</v>
+      </c>
+      <c r="B19">
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>148</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2.2400000000000002</v>
+        <v>68</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>156</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2.0800000000000001</v>
+        <v>72</v>
+      </c>
+      <c r="B21">
+        <v>280</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>164</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1.9199999999999999</v>
+        <v>76</v>
+      </c>
+      <c r="B22">
+        <v>360</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>172</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1.76</v>
+        <v>80</v>
+      </c>
+      <c r="B23">
+        <v>420</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>180</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1.6799999999999999</v>
+        <v>84</v>
+      </c>
+      <c r="B24">
+        <v>480</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>188</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1.52</v>
+        <v>88</v>
+      </c>
+      <c r="B25">
+        <v>560</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>196</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1.4399999999999999</v>
+        <v>92</v>
+      </c>
+      <c r="B26">
+        <v>600</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>204</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1.3600000000000001</v>
+        <v>96</v>
+      </c>
+      <c r="B27">
+        <v>660</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>212</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1.2</v>
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <v>720</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>220</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1.1200000000000001</v>
+        <v>108</v>
+      </c>
+      <c r="B29">
+        <v>820</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>240</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.95999999999999996</v>
+        <f>A29+8</f>
+        <v>116</v>
+      </c>
+      <c r="B30">
+        <v>920</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>260</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.80000000000000004</v>
+        <f>A30+8</f>
+        <v>124</v>
+      </c>
+      <c r="B31">
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>280</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0.64000000000000001</v>
+        <f>A31+8</f>
+        <v>132</v>
+      </c>
+      <c r="B32">
+        <v>1060</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>300</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0.56000000000000005</v>
+        <f>A32+8</f>
+        <v>140</v>
+      </c>
+      <c r="B33">
+        <v>1140</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>320</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.47999999999999998</v>
+        <f>A33+8</f>
+        <v>148</v>
+      </c>
+      <c r="B34">
+        <v>1200</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>340</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0.40000000000000002</v>
+        <f>A34+8</f>
+        <v>156</v>
+      </c>
+      <c r="B35">
+        <v>1260</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>360</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0.32000000000000001</v>
+        <f>A35+8</f>
+        <v>164</v>
+      </c>
+      <c r="B36">
+        <v>1300</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>380</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0.23999999999999999</v>
+        <f>A36+8</f>
+        <v>172</v>
+      </c>
+      <c r="B37">
+        <v>1340</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>400</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0.23999999999999999</v>
+        <f>A37+8</f>
+        <v>180</v>
+      </c>
+      <c r="B38">
+        <v>1380</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>420</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0.16</v>
+        <f>A38+8</f>
+        <v>188</v>
+      </c>
+      <c r="B39">
+        <v>1420</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>440</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.16</v>
+        <f>A39+8</f>
+        <v>196</v>
+      </c>
+      <c r="B40">
+        <v>1460</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>460</v>
-      </c>
-      <c r="B41" s="2">
-        <v>0.080000000000000002</v>
+        <v>204</v>
+      </c>
+      <c r="B41">
+        <v>1480</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>480</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0.080000000000000002</v>
+        <v>212</v>
+      </c>
+      <c r="B42">
+        <v>1520</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>500</v>
-      </c>
-      <c r="B43" s="2">
-        <v>0</v>
+        <v>220</v>
+      </c>
+      <c r="B43">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>230</v>
+      </c>
+      <c r="B44">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <f>A44+10</f>
+        <v>240</v>
+      </c>
+      <c r="B45">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <f>A45+10</f>
+        <v>250</v>
+      </c>
+      <c r="B46">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <f>A46+10</f>
+        <v>260</v>
+      </c>
+      <c r="B47">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <f>A47+10</f>
+        <v>270</v>
+      </c>
+      <c r="B48">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <f>A48+10</f>
+        <v>280</v>
+      </c>
+      <c r="B49">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <f>A49+10</f>
+        <v>290</v>
+      </c>
+      <c r="B50">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <f>A50+10</f>
+        <v>300</v>
+      </c>
+      <c r="B51">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>320</v>
+      </c>
+      <c r="B52">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>340</v>
+      </c>
+      <c r="B53">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>360</v>
+      </c>
+      <c r="B54">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>380</v>
+      </c>
+      <c r="B55">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>400</v>
+      </c>
+      <c r="B56">
+        <v>1760</v>
       </c>
     </row>
   </sheetData>

--- a/20240321circuiti2/circuiti_2_dati.xlsx
+++ b/20240321circuiti2/circuiti_2_dati.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RC_vecchio" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="RC" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="LR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RCL sottosmorzato" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">R (Kohm)</t>
   </si>
@@ -64,6 +65,27 @@
   <si>
     <t xml:space="preserve">Vpp (V)</t>
   </si>
+  <si>
+    <t xml:space="preserve">R (ohm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L (mHr)</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V (mV)</t>
+  </si>
+  <si>
+    <t>Vpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salto: 4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V REALE</t>
+  </si>
 </sst>
 </file>
 
@@ -101,13 +123,20 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1412,7 +1441,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1675,7 +1704,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <f>A29+8</f>
+        <f t="shared" ref="A30:A40" si="0">A29+8</f>
         <v>116</v>
       </c>
       <c r="B30">
@@ -1684,7 +1713,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <f>A30+8</f>
+        <f t="shared" si="0"/>
         <v>124</v>
       </c>
       <c r="B31">
@@ -1693,7 +1722,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <f>A31+8</f>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
       <c r="B32">
@@ -1702,7 +1731,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <f>A32+8</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="B33">
@@ -1711,7 +1740,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <f>A33+8</f>
+        <f t="shared" si="0"/>
         <v>148</v>
       </c>
       <c r="B34">
@@ -1720,7 +1749,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <f>A34+8</f>
+        <f t="shared" si="0"/>
         <v>156</v>
       </c>
       <c r="B35">
@@ -1729,7 +1758,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <f>A35+8</f>
+        <f t="shared" si="0"/>
         <v>164</v>
       </c>
       <c r="B36">
@@ -1738,7 +1767,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <f>A36+8</f>
+        <f t="shared" si="0"/>
         <v>172</v>
       </c>
       <c r="B37">
@@ -1747,7 +1776,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <f>A37+8</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="B38">
@@ -1756,7 +1785,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <f>A38+8</f>
+        <f t="shared" si="0"/>
         <v>188</v>
       </c>
       <c r="B39">
@@ -1765,7 +1794,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <f>A39+8</f>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="B40">
@@ -1806,7 +1835,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <f>A44+10</f>
+        <f t="shared" ref="A45:A51" si="1">A44+10</f>
         <v>240</v>
       </c>
       <c r="B45">
@@ -1815,7 +1844,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <f>A45+10</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="B46">
@@ -1824,7 +1853,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <f>A46+10</f>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="B47">
@@ -1833,7 +1862,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <f>A47+10</f>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="B48">
@@ -1842,7 +1871,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <f>A48+10</f>
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
       <c r="B49">
@@ -1851,7 +1880,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <f>A49+10</f>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="B50">
@@ -1860,7 +1889,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <f>A50+10</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="B51">
@@ -1905,6 +1934,942 @@
       </c>
       <c r="B56">
         <v>1760</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>99</v>
+      </c>
+      <c r="C2">
+        <v>82</v>
+      </c>
+      <c r="D2" s="6">
+        <v>58.5</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="E8" s="5">
+        <v>60</v>
+      </c>
+      <c r="F8" s="5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="E9">
+        <v>70</v>
+      </c>
+      <c r="F9">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="E10">
+        <v>80</v>
+      </c>
+      <c r="F10">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="E11">
+        <v>90</v>
+      </c>
+      <c r="F11">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="E13">
+        <v>110</v>
+      </c>
+      <c r="F13">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="E14">
+        <v>120</v>
+      </c>
+      <c r="F14">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="E15">
+        <v>130</v>
+      </c>
+      <c r="F15">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="E16">
+        <v>140</v>
+      </c>
+      <c r="F16">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="E17">
+        <v>150</v>
+      </c>
+      <c r="F17">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="E18">
+        <v>160</v>
+      </c>
+      <c r="F18">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="E19">
+        <v>170</v>
+      </c>
+      <c r="F19">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="E20">
+        <v>180</v>
+      </c>
+      <c r="F20">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="E21">
+        <v>200</v>
+      </c>
+      <c r="F21">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="E22">
+        <v>220</v>
+      </c>
+      <c r="F22">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="E23">
+        <v>240</v>
+      </c>
+      <c r="F23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="E24">
+        <v>270</v>
+      </c>
+      <c r="F24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="E25">
+        <v>300</v>
+      </c>
+      <c r="F25">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="E26">
+        <v>320</v>
+      </c>
+      <c r="F26">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="E27">
+        <v>340</v>
+      </c>
+      <c r="F27">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="E28">
+        <v>360</v>
+      </c>
+      <c r="F28">
+        <v>-220</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="E29">
+        <v>380</v>
+      </c>
+      <c r="F29">
+        <v>-260</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="E30">
+        <v>390</v>
+      </c>
+      <c r="F30">
+        <v>-280</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="E31">
+        <v>400</v>
+      </c>
+      <c r="F31">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="E32">
+        <v>410</v>
+      </c>
+      <c r="F32">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="E33">
+        <v>420</v>
+      </c>
+      <c r="F33">
+        <v>-310</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="E34">
+        <v>430</v>
+      </c>
+      <c r="F34">
+        <v>-310</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="E35">
+        <v>440</v>
+      </c>
+      <c r="F35">
+        <v>-310</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="E36">
+        <v>450</v>
+      </c>
+      <c r="F36">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="E37">
+        <v>460</v>
+      </c>
+      <c r="F37">
+        <v>-290</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="E38">
+        <v>470</v>
+      </c>
+      <c r="F38">
+        <v>-280</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="E39">
+        <v>480</v>
+      </c>
+      <c r="F39">
+        <v>-260</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="E40">
+        <v>500</v>
+      </c>
+      <c r="F40">
+        <v>-230</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="E41">
+        <v>520</v>
+      </c>
+      <c r="F41">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="E42">
+        <v>540</v>
+      </c>
+      <c r="F42">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="E43">
+        <v>560</v>
+      </c>
+      <c r="F43">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="E44">
+        <v>590</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="E45">
+        <v>620</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="E46">
+        <v>640</v>
+      </c>
+      <c r="F46">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="E47">
+        <v>660</v>
+      </c>
+      <c r="F47">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="E48">
+        <v>670</v>
+      </c>
+      <c r="F48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="E49">
+        <v>680</v>
+      </c>
+      <c r="F49">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="E50">
+        <v>690</v>
+      </c>
+      <c r="F50">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="E51">
+        <v>700</v>
+      </c>
+      <c r="F51">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="E52">
+        <v>710</v>
+      </c>
+      <c r="F52">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="E53">
+        <v>720</v>
+      </c>
+      <c r="F53">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="E54">
+        <v>730</v>
+      </c>
+      <c r="F54">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="E55">
+        <v>740</v>
+      </c>
+      <c r="F55">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="E56">
+        <v>750</v>
+      </c>
+      <c r="F56">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="E57">
+        <v>760</v>
+      </c>
+      <c r="F57">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="E58">
+        <v>770</v>
+      </c>
+      <c r="F58">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="E59">
+        <v>780</v>
+      </c>
+      <c r="F59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="E60">
+        <v>790</v>
+      </c>
+      <c r="F60">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="E61">
+        <v>800</v>
+      </c>
+      <c r="F61">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="E62">
+        <v>820</v>
+      </c>
+      <c r="F62">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="E63">
+        <v>850</v>
+      </c>
+      <c r="F63">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="E64">
+        <v>880</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="E65">
+        <v>890</v>
+      </c>
+      <c r="F65">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="E66">
+        <v>920</v>
+      </c>
+      <c r="F66">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="E67">
+        <v>940</v>
+      </c>
+      <c r="F67">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="E68">
+        <v>960</v>
+      </c>
+      <c r="F68">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="E69">
+        <v>970</v>
+      </c>
+      <c r="F69">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="E70">
+        <v>990</v>
+      </c>
+      <c r="F70">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="E71">
+        <v>1000</v>
+      </c>
+      <c r="F71">
+        <v>-170</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="E72">
+        <v>1010</v>
+      </c>
+      <c r="F72">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="E73">
+        <v>1030</v>
+      </c>
+      <c r="F73">
+        <v>-170</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="E74">
+        <v>1040</v>
+      </c>
+      <c r="F74">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="E75">
+        <v>1060</v>
+      </c>
+      <c r="F75">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="E76">
+        <v>1080</v>
+      </c>
+      <c r="F76">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="E77">
+        <v>1110</v>
+      </c>
+      <c r="F77">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="E78">
+        <v>1160</v>
+      </c>
+      <c r="F78">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="E79">
+        <v>1200</v>
+      </c>
+      <c r="F79">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="E80">
+        <v>1220</v>
+      </c>
+      <c r="F80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="E81">
+        <v>1240</v>
+      </c>
+      <c r="F81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="E82">
+        <v>1270</v>
+      </c>
+      <c r="F82">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="E83">
+        <v>1290</v>
+      </c>
+      <c r="F83">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="E84">
+        <v>1320</v>
+      </c>
+      <c r="F84">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="E85">
+        <v>1340</v>
+      </c>
+      <c r="F85">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="E86">
+        <v>1370</v>
+      </c>
+      <c r="F86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="E87">
+        <v>1410</v>
+      </c>
+      <c r="F87">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="E88">
+        <v>1460</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="E89">
+        <v>1500</v>
+      </c>
+      <c r="F89">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="E90">
+        <v>1520</v>
+      </c>
+      <c r="F90">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="E91">
+        <v>1540</v>
+      </c>
+      <c r="F91">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="E92">
+        <v>1560</v>
+      </c>
+      <c r="F92">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25">
+      <c r="E93">
+        <v>1580</v>
+      </c>
+      <c r="F93">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25">
+      <c r="E94">
+        <v>1610</v>
+      </c>
+      <c r="F94">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25">
+      <c r="E95">
+        <v>1640</v>
+      </c>
+      <c r="F95">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25">
+      <c r="E96">
+        <v>1690</v>
+      </c>
+      <c r="F96">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25">
+      <c r="E97">
+        <v>1750</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25">
+      <c r="E98">
+        <v>1810</v>
+      </c>
+      <c r="F98">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25">
+      <c r="E99">
+        <v>1860</v>
+      </c>
+      <c r="F99">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25">
+      <c r="E100">
+        <v>1920</v>
+      </c>
+      <c r="F100">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25">
+      <c r="E101">
+        <v>2000</v>
+      </c>
+      <c r="F101">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25">
+      <c r="E102">
+        <v>2070</v>
+      </c>
+      <c r="F102">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25">
+      <c r="E103">
+        <v>2110</v>
+      </c>
+      <c r="F103">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25">
+      <c r="E104">
+        <v>2180</v>
+      </c>
+      <c r="F104">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25">
+      <c r="E105">
+        <v>2290</v>
+      </c>
+      <c r="F105">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25">
+      <c r="E106">
+        <v>2440</v>
+      </c>
+      <c r="F106">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25">
+      <c r="E107">
+        <v>2540</v>
+      </c>
+      <c r="F107">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25">
+      <c r="E108">
+        <v>2660</v>
+      </c>
+      <c r="F108">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25">
+      <c r="E109">
+        <v>2750</v>
+      </c>
+      <c r="F109">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25">
+      <c r="E110">
+        <v>2900</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/20240321circuiti2/circuiti_2_dati.xlsx
+++ b/20240321circuiti2/circuiti_2_dati.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RC_vecchio" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="RC" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="LR" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="RCL sottosmorzato" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">R (Kohm)</t>
   </si>
@@ -86,6 +87,9 @@
   <si>
     <t xml:space="preserve">V REALE</t>
   </si>
+  <si>
+    <t xml:space="preserve">Freq (Hz)</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
@@ -136,7 +140,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1981,6 +1994,9 @@
       <c r="I1" t="s">
         <v>22</v>
       </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2">
@@ -2007,6 +2023,9 @@
       <c r="I2">
         <v>3.96</v>
       </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" ht="14.25">
       <c r="E3">
@@ -2869,6 +2888,750 @@
         <v>2900</v>
       </c>
       <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="6" max="6" style="2" width="9.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="4">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>99</v>
+      </c>
+      <c r="C2" s="4">
+        <v>82</v>
+      </c>
+      <c r="D2" s="6">
+        <v>58.5</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>7.4800000000000004</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2">
+        <v>7.2400000000000002</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="E5">
+        <v>120</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6.7199999999999998</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="E6" s="7">
+        <v>160</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6.4800000000000004</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6.2999999999999998</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="E8">
+        <v>240</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="E9">
+        <v>280</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5.7599999999999998</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="E10">
+        <v>320</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5.5199999999999996</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="E11">
+        <v>360</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5.3200000000000003</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="E12">
+        <v>400</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5.0800000000000001</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="E13">
+        <v>440</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4.8799999999999999</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="E14">
+        <v>480</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4.6799999999999997</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="E15">
+        <v>520</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="E16">
+        <v>560</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4.3200000000000003</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="E17">
+        <v>600</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4.1600000000000001</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="E18">
+        <v>640</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="E19">
+        <v>680</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3.8399999999999999</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="E20">
+        <v>720</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3.6400000000000001</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="E21">
+        <v>760</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="E22">
+        <v>800</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3.3599999999999999</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="E23">
+        <v>840</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3.2400000000000002</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="E24">
+        <v>880</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3.0800000000000001</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="E25">
+        <v>920</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="E26">
+        <v>960</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2.8799999999999999</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="E27">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2.7599999999999998</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="E28">
+        <v>1040</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2.6400000000000001</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="E29">
+        <v>1080</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="E30">
+        <v>1120</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2.4399999999999999</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="E31">
+        <v>1160</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="E32">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="E33">
+        <v>1240</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2.1200000000000001</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="E34">
+        <v>1280</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="E35">
+        <v>1320</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="E36">
+        <v>1360</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1.8799999999999999</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="E37">
+        <v>1400</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="E38">
+        <v>1440</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="E39">
+        <v>1480</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1.6799999999999999</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="E40">
+        <v>1520</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1.6000000000000001</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="E41">
+        <v>1560</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1.5600000000000001</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="E42">
+        <v>1600</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="E43">
+        <v>1640</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1.4399999999999999</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="E44">
+        <v>1680</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1.3600000000000001</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="E45">
+        <v>1720</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1.3200000000000001</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="E46">
+        <v>1760</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="E47">
+        <v>1800</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="E48">
+        <v>1840</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="E49">
+        <v>1880</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="E50">
+        <v>1920</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1.0800000000000001</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="E51">
+        <v>1960</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="E52">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="E53">
+        <v>2080</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.92000000000000004</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="E54">
+        <v>2160</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0.83999999999999997</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="E55">
+        <v>2240</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.76000000000000001</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="E56">
+        <v>2320</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.71999999999999997</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="E57">
+        <v>2400</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.64000000000000001</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="E58">
+        <v>2480</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.59999999999999998</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="E59">
+        <v>2560</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="E60">
+        <v>2640</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0.52000000000000002</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="E61">
+        <v>2720</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.47999999999999998</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="E62">
+        <v>2800</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="E63">
+        <v>2880</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="E64">
+        <v>2960</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0.40000000000000002</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="E65">
+        <v>3040</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.35999999999999999</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="E66">
+        <v>3120</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0.32000000000000001</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="E67">
+        <v>3200</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0.32000000000000001</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="E68">
+        <v>3280</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="E69">
+        <v>3400</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0.23999999999999999</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="E70">
+        <v>3520</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0.20000000000000001</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="E71">
+        <v>3680</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0.20000000000000001</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="E72">
+        <v>3840</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="E73">
+        <v>3920</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="E74">
+        <v>4120</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="E75">
+        <v>4320</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="E76">
+        <v>4520</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0.080000000000000002</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="E77">
+        <v>4640</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0.080000000000000002</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="E78">
+        <v>4760</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0.080000000000000002</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="E79">
+        <v>5080</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0.040000000000000001</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="E80">
+        <v>5320</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0.040000000000000001</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="E81">
+        <v>5600</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0.040000000000000001</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="E82">
+        <v>5840</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0.040000000000000001</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="E83">
+        <v>6160</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0.040000000000000001</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="E84">
+        <v>6320</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="E85">
+        <v>6560</v>
+      </c>
+      <c r="F85" s="2">
         <v>0</v>
       </c>
     </row>

--- a/20240321circuiti2/circuiti_2_dati.xlsx
+++ b/20240321circuiti2/circuiti_2_dati.xlsx
@@ -127,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
@@ -142,14 +142,17 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
-      <protection hidden="0" locked="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
-      <protection hidden="0" locked="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2902,7 +2905,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2912,7 +2915,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2927,7 +2930,7 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -2959,8 +2962,8 @@
       <c r="E2" s="7">
         <v>0</v>
       </c>
-      <c r="F2" s="10">
-        <v>7.4800000000000004</v>
+      <c r="F2" s="8">
+        <v>0</v>
       </c>
       <c r="G2" s="4">
         <v>8</v>
@@ -2972,666 +2975,825 @@
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="E3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8">
+        <v>5.7199999999999998</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11">
+        <v>16</v>
+      </c>
+      <c r="F6" s="8">
+        <v>6.4800000000000004</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8">
+        <v>6.9199999999999999</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11">
+        <v>24</v>
+      </c>
+      <c r="F8" s="8">
+        <v>7.2000000000000002</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8">
+        <v>7.3600000000000003</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11">
+        <v>32</v>
+      </c>
+      <c r="F10" s="8">
+        <v>7.4400000000000004</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11">
+        <v>36</v>
+      </c>
+      <c r="F11" s="8">
+        <v>7.4800000000000004</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>7.4800000000000004</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="E13" s="7">
         <v>40</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F13" s="2">
         <v>7.2400000000000002</v>
       </c>
     </row>
-    <row r="4" ht="14.25">
-      <c r="E4">
+    <row r="14" ht="14.25">
+      <c r="E14" s="7">
         <v>80</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F14" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25">
-      <c r="E5">
+    <row r="15" ht="14.25">
+      <c r="E15" s="7">
         <v>120</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F15" s="2">
         <v>6.7199999999999998</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
-      <c r="E6" s="7">
+    <row r="16" ht="14.25">
+      <c r="E16" s="7">
         <v>160</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F16" s="2">
         <v>6.4800000000000004</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
-      <c r="E7">
+    <row r="17" ht="14.25">
+      <c r="E17" s="7">
         <v>200</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F17" s="2">
         <v>6.2999999999999998</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
-      <c r="E8">
+    <row r="18" ht="14.25">
+      <c r="E18" s="7">
         <v>240</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F18" s="2">
         <v>5.96</v>
       </c>
     </row>
-    <row r="9" ht="14.25">
-      <c r="E9">
+    <row r="19" ht="14.25">
+      <c r="E19" s="7">
         <v>280</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F19" s="2">
         <v>5.7599999999999998</v>
       </c>
     </row>
-    <row r="10" ht="14.25">
-      <c r="E10">
+    <row r="20" ht="14.25">
+      <c r="E20" s="7">
         <v>320</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F20" s="2">
         <v>5.5199999999999996</v>
       </c>
     </row>
-    <row r="11" ht="14.25">
-      <c r="E11">
+    <row r="21" ht="14.25">
+      <c r="E21" s="7">
         <v>360</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F21" s="2">
         <v>5.3200000000000003</v>
       </c>
     </row>
-    <row r="12" ht="14.25">
-      <c r="E12">
+    <row r="22" ht="14.25">
+      <c r="E22" s="7">
         <v>400</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F22" s="2">
         <v>5.0800000000000001</v>
       </c>
     </row>
-    <row r="13" ht="14.25">
-      <c r="E13">
+    <row r="23" ht="14.25">
+      <c r="E23" s="7">
         <v>440</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F23" s="2">
         <v>4.8799999999999999</v>
       </c>
     </row>
-    <row r="14" ht="14.25">
-      <c r="E14">
+    <row r="24" ht="14.25">
+      <c r="E24" s="7">
         <v>480</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F24" s="2">
         <v>4.6799999999999997</v>
       </c>
     </row>
-    <row r="15" ht="14.25">
-      <c r="E15">
+    <row r="25" ht="14.25">
+      <c r="E25" s="7">
         <v>520</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F25" s="2">
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="16" ht="14.25">
-      <c r="E16">
+    <row r="26" ht="14.25">
+      <c r="E26" s="7">
         <v>560</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F26" s="2">
         <v>4.3200000000000003</v>
       </c>
     </row>
-    <row r="17" ht="14.25">
-      <c r="E17">
+    <row r="27" ht="14.25">
+      <c r="E27" s="7">
         <v>600</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F27" s="2">
         <v>4.1600000000000001</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
-      <c r="E18">
+    <row r="28" ht="14.25">
+      <c r="E28" s="7">
         <v>640</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F28" s="2">
         <v>3.96</v>
       </c>
     </row>
-    <row r="19" ht="14.25">
-      <c r="E19">
+    <row r="29" ht="14.25">
+      <c r="E29" s="7">
         <v>680</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F29" s="2">
         <v>3.8399999999999999</v>
       </c>
     </row>
-    <row r="20" ht="14.25">
-      <c r="E20">
+    <row r="30" ht="14.25">
+      <c r="E30" s="7">
         <v>720</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F30" s="2">
         <v>3.6400000000000001</v>
       </c>
     </row>
-    <row r="21" ht="14.25">
-      <c r="E21">
+    <row r="31" ht="14.25">
+      <c r="E31" s="7">
         <v>760</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F31" s="2">
         <v>3.52</v>
       </c>
     </row>
-    <row r="22" ht="14.25">
-      <c r="E22">
+    <row r="32" ht="14.25">
+      <c r="E32" s="7">
         <v>800</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F32" s="2">
         <v>3.3599999999999999</v>
       </c>
     </row>
-    <row r="23" ht="14.25">
-      <c r="E23">
+    <row r="33" ht="14.25">
+      <c r="E33" s="7">
         <v>840</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F33" s="2">
         <v>3.2400000000000002</v>
       </c>
     </row>
-    <row r="24" ht="14.25">
-      <c r="E24">
+    <row r="34" ht="14.25">
+      <c r="E34" s="7">
         <v>880</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F34" s="2">
         <v>3.0800000000000001</v>
       </c>
     </row>
-    <row r="25" ht="14.25">
-      <c r="E25">
+    <row r="35" ht="14.25">
+      <c r="E35" s="7">
         <v>920</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F35" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="26" ht="14.25">
-      <c r="E26">
+    <row r="36" ht="14.25">
+      <c r="E36" s="7">
         <v>960</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F36" s="2">
         <v>2.8799999999999999</v>
       </c>
     </row>
-    <row r="27" ht="14.25">
-      <c r="E27">
+    <row r="37" ht="14.25">
+      <c r="E37" s="7">
         <v>1000</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F37" s="2">
         <v>2.7599999999999998</v>
       </c>
     </row>
-    <row r="28" ht="14.25">
-      <c r="E28">
+    <row r="38" ht="14.25">
+      <c r="E38" s="7">
         <v>1040</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F38" s="2">
         <v>2.6400000000000001</v>
       </c>
     </row>
-    <row r="29" ht="14.25">
-      <c r="E29">
+    <row r="39" ht="14.25">
+      <c r="E39" s="7">
         <v>1080</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F39" s="2">
         <v>2.52</v>
       </c>
     </row>
-    <row r="30" ht="14.25">
-      <c r="E30">
+    <row r="40" ht="14.25">
+      <c r="E40" s="7">
         <v>1120</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F40" s="2">
         <v>2.4399999999999999</v>
       </c>
     </row>
-    <row r="31" ht="14.25">
-      <c r="E31">
+    <row r="41" ht="14.25">
+      <c r="E41" s="7">
         <v>1160</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F41" s="2">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="32" ht="14.25">
-      <c r="E32">
+    <row r="42" ht="14.25">
+      <c r="E42" s="7">
         <v>1200</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F42" s="2">
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="33" ht="14.25">
-      <c r="E33">
+    <row r="43" ht="14.25">
+      <c r="E43" s="7">
         <v>1240</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F43" s="2">
         <v>2.1200000000000001</v>
       </c>
     </row>
-    <row r="34" ht="14.25">
-      <c r="E34">
+    <row r="44" ht="14.25">
+      <c r="E44" s="7">
         <v>1280</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F44" s="2">
         <v>2.04</v>
       </c>
     </row>
-    <row r="35" ht="14.25">
-      <c r="E35">
+    <row r="45" ht="14.25">
+      <c r="E45" s="7">
         <v>1320</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F45" s="2">
         <v>1.96</v>
       </c>
     </row>
-    <row r="36" ht="14.25">
-      <c r="E36">
+    <row r="46" ht="14.25">
+      <c r="E46" s="7">
         <v>1360</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F46" s="2">
         <v>1.8799999999999999</v>
       </c>
     </row>
-    <row r="37" ht="14.25">
-      <c r="E37">
+    <row r="47" ht="14.25">
+      <c r="E47" s="7">
         <v>1400</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F47" s="2">
         <v>1.8</v>
       </c>
     </row>
-    <row r="38" ht="14.25">
-      <c r="E38">
+    <row r="48" ht="14.25">
+      <c r="E48" s="7">
         <v>1440</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F48" s="2">
         <v>1.76</v>
       </c>
     </row>
-    <row r="39" ht="14.25">
-      <c r="E39">
+    <row r="49" ht="14.25">
+      <c r="E49" s="7">
         <v>1480</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F49" s="2">
         <v>1.6799999999999999</v>
       </c>
     </row>
-    <row r="40" ht="14.25">
-      <c r="E40">
+    <row r="50" ht="14.25">
+      <c r="E50" s="7">
         <v>1520</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F50" s="2">
         <v>1.6000000000000001</v>
       </c>
     </row>
-    <row r="41" ht="14.25">
-      <c r="E41">
+    <row r="51" ht="14.25">
+      <c r="E51" s="7">
         <v>1560</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F51" s="2">
         <v>1.5600000000000001</v>
       </c>
     </row>
-    <row r="42" ht="14.25">
-      <c r="E42">
+    <row r="52" ht="14.25">
+      <c r="E52" s="7">
         <v>1600</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F52" s="2">
         <v>1.48</v>
       </c>
     </row>
-    <row r="43" ht="14.25">
-      <c r="E43">
+    <row r="53" ht="14.25">
+      <c r="E53" s="7">
         <v>1640</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F53" s="2">
         <v>1.4399999999999999</v>
       </c>
     </row>
-    <row r="44" ht="14.25">
-      <c r="E44">
+    <row r="54" ht="14.25">
+      <c r="E54" s="7">
         <v>1680</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F54" s="2">
         <v>1.3600000000000001</v>
       </c>
     </row>
-    <row r="45" ht="14.25">
-      <c r="E45">
+    <row r="55" ht="14.25">
+      <c r="E55" s="7">
         <v>1720</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F55" s="2">
         <v>1.3200000000000001</v>
       </c>
     </row>
-    <row r="46" ht="14.25">
-      <c r="E46">
+    <row r="56" ht="14.25">
+      <c r="E56" s="7">
         <v>1760</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F56" s="2">
         <v>1.28</v>
       </c>
     </row>
-    <row r="47" ht="14.25">
-      <c r="E47">
+    <row r="57" ht="14.25">
+      <c r="E57" s="7">
         <v>1800</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F57" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="48" ht="14.25">
-      <c r="E48">
+    <row r="58" ht="14.25">
+      <c r="E58" s="7">
         <v>1840</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F58" s="2">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="49" ht="14.25">
-      <c r="E49">
+    <row r="59" ht="14.25">
+      <c r="E59" s="7">
         <v>1880</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F59" s="2">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="50" ht="14.25">
-      <c r="E50">
+    <row r="60" ht="14.25">
+      <c r="E60" s="7">
         <v>1920</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F60" s="2">
         <v>1.0800000000000001</v>
       </c>
     </row>
-    <row r="51" ht="14.25">
-      <c r="E51">
+    <row r="61" ht="14.25">
+      <c r="E61" s="7">
         <v>1960</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F61" s="2">
         <v>1.04</v>
       </c>
     </row>
-    <row r="52" ht="14.25">
-      <c r="E52">
+    <row r="62" ht="14.25">
+      <c r="E62" s="7">
         <v>2000</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F62" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="14.25">
-      <c r="E53">
+    <row r="63" ht="14.25">
+      <c r="E63" s="7">
         <v>2080</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F63" s="2">
         <v>0.92000000000000004</v>
       </c>
     </row>
-    <row r="54" ht="14.25">
-      <c r="E54">
+    <row r="64" ht="14.25">
+      <c r="E64" s="7">
         <v>2160</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F64" s="2">
         <v>0.83999999999999997</v>
       </c>
     </row>
-    <row r="55" ht="14.25">
-      <c r="E55">
+    <row r="65" ht="14.25">
+      <c r="E65" s="7">
         <v>2240</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F65" s="2">
         <v>0.76000000000000001</v>
       </c>
     </row>
-    <row r="56" ht="14.25">
-      <c r="E56">
+    <row r="66" ht="14.25">
+      <c r="E66" s="7">
         <v>2320</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F66" s="2">
         <v>0.71999999999999997</v>
       </c>
     </row>
-    <row r="57" ht="14.25">
-      <c r="E57">
+    <row r="67" ht="14.25">
+      <c r="E67" s="7">
         <v>2400</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F67" s="2">
         <v>0.64000000000000001</v>
       </c>
     </row>
-    <row r="58" ht="14.25">
-      <c r="E58">
+    <row r="68" ht="14.25">
+      <c r="E68" s="7">
         <v>2480</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F68" s="2">
         <v>0.59999999999999998</v>
       </c>
     </row>
-    <row r="59" ht="14.25">
-      <c r="E59">
+    <row r="69" ht="14.25">
+      <c r="E69" s="7">
         <v>2560</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F69" s="2">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="60" ht="14.25">
-      <c r="E60">
+    <row r="70" ht="14.25">
+      <c r="E70" s="7">
         <v>2640</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F70" s="2">
         <v>0.52000000000000002</v>
       </c>
     </row>
-    <row r="61" ht="14.25">
-      <c r="E61">
+    <row r="71" ht="14.25">
+      <c r="E71" s="7">
         <v>2720</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F71" s="2">
         <v>0.47999999999999998</v>
       </c>
     </row>
-    <row r="62" ht="14.25">
-      <c r="E62">
+    <row r="72" ht="14.25">
+      <c r="E72" s="7">
         <v>2800</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F72" s="2">
         <v>0.44</v>
       </c>
     </row>
-    <row r="63" ht="14.25">
-      <c r="E63">
+    <row r="73" ht="14.25">
+      <c r="E73" s="7">
         <v>2880</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F73" s="2">
         <v>0.40000000000000002</v>
       </c>
     </row>
-    <row r="64" ht="14.25">
-      <c r="E64">
+    <row r="74" ht="14.25">
+      <c r="E74" s="7">
         <v>2960</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F74" s="2">
         <v>0.40000000000000002</v>
       </c>
     </row>
-    <row r="65" ht="14.25">
-      <c r="E65">
+    <row r="75" ht="14.25">
+      <c r="E75" s="7">
         <v>3040</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F75" s="2">
         <v>0.35999999999999999</v>
       </c>
     </row>
-    <row r="66" ht="14.25">
-      <c r="E66">
+    <row r="76" ht="14.25">
+      <c r="E76" s="7">
         <v>3120</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F76" s="2">
         <v>0.32000000000000001</v>
       </c>
     </row>
-    <row r="67" ht="14.25">
-      <c r="E67">
+    <row r="77" ht="14.25">
+      <c r="E77" s="7">
         <v>3200</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F77" s="2">
         <v>0.32000000000000001</v>
       </c>
     </row>
-    <row r="68" ht="14.25">
-      <c r="E68">
+    <row r="78" ht="14.25">
+      <c r="E78" s="7">
         <v>3280</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F78" s="2">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="69" ht="14.25">
-      <c r="E69">
+    <row r="79" ht="14.25">
+      <c r="E79" s="7">
         <v>3400</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F79" s="2">
         <v>0.23999999999999999</v>
       </c>
     </row>
-    <row r="70" ht="14.25">
-      <c r="E70">
+    <row r="80" ht="14.25">
+      <c r="E80" s="7">
         <v>3520</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F80" s="2">
         <v>0.20000000000000001</v>
       </c>
     </row>
-    <row r="71" ht="14.25">
-      <c r="E71">
+    <row r="81" ht="14.25">
+      <c r="E81" s="7">
         <v>3680</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F81" s="2">
         <v>0.20000000000000001</v>
       </c>
     </row>
-    <row r="72" ht="14.25">
-      <c r="E72">
+    <row r="82" ht="14.25">
+      <c r="E82" s="7">
         <v>3840</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F82" s="2">
         <v>0.16</v>
       </c>
     </row>
-    <row r="73" ht="14.25">
-      <c r="E73">
+    <row r="83" ht="14.25">
+      <c r="E83" s="7">
         <v>3920</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F83" s="2">
         <v>0.16</v>
       </c>
     </row>
-    <row r="74" ht="14.25">
-      <c r="E74">
+    <row r="84" ht="14.25">
+      <c r="E84" s="7">
         <v>4120</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F84" s="2">
         <v>0.12</v>
       </c>
     </row>
-    <row r="75" ht="14.25">
-      <c r="E75">
+    <row r="85" ht="14.25">
+      <c r="E85" s="7">
         <v>4320</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F85" s="2">
         <v>0.12</v>
       </c>
     </row>
-    <row r="76" ht="14.25">
-      <c r="E76">
+    <row r="86" ht="14.25">
+      <c r="E86" s="7">
         <v>4520</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F86" s="2">
         <v>0.080000000000000002</v>
       </c>
     </row>
-    <row r="77" ht="14.25">
-      <c r="E77">
+    <row r="87" ht="14.25">
+      <c r="E87" s="7">
         <v>4640</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F87" s="2">
         <v>0.080000000000000002</v>
       </c>
     </row>
-    <row r="78" ht="14.25">
-      <c r="E78">
+    <row r="88" ht="14.25">
+      <c r="E88" s="7">
         <v>4760</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F88" s="2">
         <v>0.080000000000000002</v>
       </c>
     </row>
-    <row r="79" ht="14.25">
-      <c r="E79">
+    <row r="89" ht="14.25">
+      <c r="E89" s="7">
         <v>5080</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F89" s="2">
         <v>0.040000000000000001</v>
       </c>
     </row>
-    <row r="80" ht="14.25">
-      <c r="E80">
+    <row r="90" ht="14.25">
+      <c r="E90" s="7">
         <v>5320</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F90" s="2">
         <v>0.040000000000000001</v>
       </c>
     </row>
-    <row r="81" ht="14.25">
-      <c r="E81">
+    <row r="91" ht="14.25">
+      <c r="E91" s="7">
         <v>5600</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F91" s="2">
         <v>0.040000000000000001</v>
       </c>
     </row>
-    <row r="82" ht="14.25">
-      <c r="E82">
+    <row r="92" ht="14.25">
+      <c r="E92" s="7">
         <v>5840</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F92" s="2">
         <v>0.040000000000000001</v>
       </c>
     </row>
-    <row r="83" ht="14.25">
-      <c r="E83">
+    <row r="93" ht="14.25">
+      <c r="E93" s="7">
         <v>6160</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F93" s="2">
         <v>0.040000000000000001</v>
       </c>
     </row>
-    <row r="84" ht="14.25">
-      <c r="E84">
+    <row r="94" ht="14.25">
+      <c r="E94" s="7">
         <v>6320</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F94" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="14.25">
-      <c r="E85">
+    <row r="95" ht="14.25">
+      <c r="E95" s="7">
         <v>6560</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F95" s="2">
         <v>0</v>
       </c>
     </row>

--- a/20240321circuiti2/circuiti_2_dati.xlsx
+++ b/20240321circuiti2/circuiti_2_dati.xlsx
@@ -2905,7 +2905,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3119,503 +3119,496 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
       <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>7.4800000000000004</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7.2400000000000002</v>
+      </c>
     </row>
     <row r="13" ht="14.25">
       <c r="E13" s="7">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="F13" s="2">
-        <v>7.2400000000000002</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="E14" s="7">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="F14" s="2">
-        <v>7</v>
+        <v>6.7199999999999998</v>
       </c>
     </row>
     <row r="15" ht="14.25">
       <c r="E15" s="7">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="F15" s="2">
-        <v>6.7199999999999998</v>
+        <v>6.4800000000000004</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="E16" s="7">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="F16" s="2">
-        <v>6.4800000000000004</v>
+        <v>6.2999999999999998</v>
       </c>
     </row>
     <row r="17" ht="14.25">
       <c r="E17" s="7">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="F17" s="2">
-        <v>6.2999999999999998</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="18" ht="14.25">
       <c r="E18" s="7">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="F18" s="2">
-        <v>5.96</v>
+        <v>5.7599999999999998</v>
       </c>
     </row>
     <row r="19" ht="14.25">
       <c r="E19" s="7">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="F19" s="2">
-        <v>5.7599999999999998</v>
+        <v>5.5199999999999996</v>
       </c>
     </row>
     <row r="20" ht="14.25">
       <c r="E20" s="7">
-        <v>320</v>
+        <v>396</v>
       </c>
       <c r="F20" s="2">
-        <v>5.5199999999999996</v>
+        <v>5.3200000000000003</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="E21" s="7">
-        <v>360</v>
+        <v>436</v>
       </c>
       <c r="F21" s="2">
-        <v>5.3200000000000003</v>
+        <v>5.0800000000000001</v>
       </c>
     </row>
     <row r="22" ht="14.25">
       <c r="E22" s="7">
-        <v>400</v>
+        <v>476</v>
       </c>
       <c r="F22" s="2">
-        <v>5.0800000000000001</v>
+        <v>4.8799999999999999</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="E23" s="7">
-        <v>440</v>
+        <v>516</v>
       </c>
       <c r="F23" s="2">
-        <v>4.8799999999999999</v>
+        <v>4.6799999999999997</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="E24" s="7">
-        <v>480</v>
+        <v>556</v>
       </c>
       <c r="F24" s="2">
-        <v>4.6799999999999997</v>
+        <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="25" ht="14.25">
       <c r="E25" s="7">
-        <v>520</v>
+        <v>596</v>
       </c>
       <c r="F25" s="2">
-        <v>4.4800000000000004</v>
+        <v>4.3200000000000003</v>
       </c>
     </row>
     <row r="26" ht="14.25">
       <c r="E26" s="7">
-        <v>560</v>
+        <v>636</v>
       </c>
       <c r="F26" s="2">
-        <v>4.3200000000000003</v>
+        <v>4.1600000000000001</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="E27" s="7">
-        <v>600</v>
+        <v>676</v>
       </c>
       <c r="F27" s="2">
-        <v>4.1600000000000001</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="E28" s="7">
-        <v>640</v>
+        <v>716</v>
       </c>
       <c r="F28" s="2">
-        <v>3.96</v>
+        <v>3.8399999999999999</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="E29" s="7">
-        <v>680</v>
+        <v>756</v>
       </c>
       <c r="F29" s="2">
-        <v>3.8399999999999999</v>
+        <v>3.6400000000000001</v>
       </c>
     </row>
     <row r="30" ht="14.25">
       <c r="E30" s="7">
-        <v>720</v>
+        <v>796</v>
       </c>
       <c r="F30" s="2">
-        <v>3.6400000000000001</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="31" ht="14.25">
       <c r="E31" s="7">
-        <v>760</v>
+        <v>836</v>
       </c>
       <c r="F31" s="2">
-        <v>3.52</v>
+        <v>3.3599999999999999</v>
       </c>
     </row>
     <row r="32" ht="14.25">
       <c r="E32" s="7">
-        <v>800</v>
+        <v>876</v>
       </c>
       <c r="F32" s="2">
-        <v>3.3599999999999999</v>
+        <v>3.2400000000000002</v>
       </c>
     </row>
     <row r="33" ht="14.25">
       <c r="E33" s="7">
-        <v>840</v>
+        <v>916</v>
       </c>
       <c r="F33" s="2">
-        <v>3.2400000000000002</v>
+        <v>3.0800000000000001</v>
       </c>
     </row>
     <row r="34" ht="14.25">
       <c r="E34" s="7">
-        <v>880</v>
+        <v>956</v>
       </c>
       <c r="F34" s="2">
-        <v>3.0800000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" ht="14.25">
       <c r="E35" s="7">
-        <v>920</v>
+        <v>996</v>
       </c>
       <c r="F35" s="2">
-        <v>3</v>
+        <v>2.8799999999999999</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="E36" s="7">
-        <v>960</v>
+        <v>1036</v>
       </c>
       <c r="F36" s="2">
-        <v>2.8799999999999999</v>
+        <v>2.7599999999999998</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="E37" s="7">
-        <v>1000</v>
+        <v>1076</v>
       </c>
       <c r="F37" s="2">
-        <v>2.7599999999999998</v>
+        <v>2.6400000000000001</v>
       </c>
     </row>
     <row r="38" ht="14.25">
       <c r="E38" s="7">
-        <v>1040</v>
+        <v>1116</v>
       </c>
       <c r="F38" s="2">
-        <v>2.6400000000000001</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="E39" s="7">
-        <v>1080</v>
+        <v>1156</v>
       </c>
       <c r="F39" s="2">
-        <v>2.52</v>
+        <v>2.4399999999999999</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="E40" s="7">
-        <v>1120</v>
+        <v>1196</v>
       </c>
       <c r="F40" s="2">
-        <v>2.4399999999999999</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="E41" s="7">
-        <v>1160</v>
+        <v>1236</v>
       </c>
       <c r="F41" s="2">
-        <v>2.3199999999999998</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="E42" s="7">
-        <v>1200</v>
+        <v>1276</v>
       </c>
       <c r="F42" s="2">
-        <v>2.2400000000000002</v>
+        <v>2.1200000000000001</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="E43" s="7">
-        <v>1240</v>
+        <v>1316</v>
       </c>
       <c r="F43" s="2">
-        <v>2.1200000000000001</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="E44" s="7">
-        <v>1280</v>
+        <v>1356</v>
       </c>
       <c r="F44" s="2">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="E45" s="7">
-        <v>1320</v>
+        <v>1396</v>
       </c>
       <c r="F45" s="2">
-        <v>1.96</v>
+        <v>1.8799999999999999</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="E46" s="7">
-        <v>1360</v>
+        <v>1436</v>
       </c>
       <c r="F46" s="2">
-        <v>1.8799999999999999</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="E47" s="7">
-        <v>1400</v>
+        <v>1476</v>
       </c>
       <c r="F47" s="2">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="E48" s="7">
-        <v>1440</v>
+        <v>1516</v>
       </c>
       <c r="F48" s="2">
-        <v>1.76</v>
+        <v>1.6799999999999999</v>
       </c>
     </row>
     <row r="49" ht="14.25">
       <c r="E49" s="7">
-        <v>1480</v>
+        <v>1556</v>
       </c>
       <c r="F49" s="2">
-        <v>1.6799999999999999</v>
+        <v>1.6000000000000001</v>
       </c>
     </row>
     <row r="50" ht="14.25">
       <c r="E50" s="7">
-        <v>1520</v>
+        <v>1596</v>
       </c>
       <c r="F50" s="2">
-        <v>1.6000000000000001</v>
+        <v>1.5600000000000001</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="E51" s="7">
-        <v>1560</v>
+        <v>1636</v>
       </c>
       <c r="F51" s="2">
-        <v>1.5600000000000001</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="E52" s="7">
-        <v>1600</v>
+        <v>1676</v>
       </c>
       <c r="F52" s="2">
-        <v>1.48</v>
+        <v>1.4399999999999999</v>
       </c>
     </row>
     <row r="53" ht="14.25">
       <c r="E53" s="7">
-        <v>1640</v>
+        <v>1716</v>
       </c>
       <c r="F53" s="2">
-        <v>1.4399999999999999</v>
+        <v>1.3600000000000001</v>
       </c>
     </row>
     <row r="54" ht="14.25">
       <c r="E54" s="7">
-        <v>1680</v>
+        <v>1756</v>
       </c>
       <c r="F54" s="2">
-        <v>1.3600000000000001</v>
+        <v>1.3200000000000001</v>
       </c>
     </row>
     <row r="55" ht="14.25">
       <c r="E55" s="7">
-        <v>1720</v>
+        <v>1796</v>
       </c>
       <c r="F55" s="2">
-        <v>1.3200000000000001</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="56" ht="14.25">
       <c r="E56" s="7">
-        <v>1760</v>
+        <v>1836</v>
       </c>
       <c r="F56" s="2">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="57" ht="14.25">
       <c r="E57" s="7">
-        <v>1800</v>
+        <v>1876</v>
       </c>
       <c r="F57" s="2">
-        <v>1.2</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="58" ht="14.25">
       <c r="E58" s="7">
-        <v>1840</v>
+        <v>1916</v>
       </c>
       <c r="F58" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="59" ht="14.25">
       <c r="E59" s="7">
-        <v>1880</v>
+        <v>1956</v>
       </c>
       <c r="F59" s="2">
-        <v>1.1200000000000001</v>
+        <v>1.0800000000000001</v>
       </c>
     </row>
     <row r="60" ht="14.25">
       <c r="E60" s="7">
-        <v>1920</v>
+        <v>1996</v>
       </c>
       <c r="F60" s="2">
-        <v>1.0800000000000001</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="61" ht="14.25">
       <c r="E61" s="7">
-        <v>1960</v>
+        <v>2036</v>
       </c>
       <c r="F61" s="2">
-        <v>1.04</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" ht="14.25">
       <c r="E62" s="7">
-        <v>2000</v>
+        <v>2116</v>
       </c>
       <c r="F62" s="2">
-        <v>1</v>
+        <v>0.92000000000000004</v>
       </c>
     </row>
     <row r="63" ht="14.25">
       <c r="E63" s="7">
-        <v>2080</v>
+        <v>2196</v>
       </c>
       <c r="F63" s="2">
-        <v>0.92000000000000004</v>
+        <v>0.83999999999999997</v>
       </c>
     </row>
     <row r="64" ht="14.25">
       <c r="E64" s="7">
-        <v>2160</v>
+        <v>2276</v>
       </c>
       <c r="F64" s="2">
-        <v>0.83999999999999997</v>
+        <v>0.76000000000000001</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="E65" s="7">
-        <v>2240</v>
+        <v>2356</v>
       </c>
       <c r="F65" s="2">
-        <v>0.76000000000000001</v>
+        <v>0.71999999999999997</v>
       </c>
     </row>
     <row r="66" ht="14.25">
       <c r="E66" s="7">
-        <v>2320</v>
+        <v>2436</v>
       </c>
       <c r="F66" s="2">
-        <v>0.71999999999999997</v>
+        <v>0.64000000000000001</v>
       </c>
     </row>
     <row r="67" ht="14.25">
       <c r="E67" s="7">
-        <v>2400</v>
+        <v>2516</v>
       </c>
       <c r="F67" s="2">
-        <v>0.64000000000000001</v>
+        <v>0.59999999999999998</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="E68" s="7">
-        <v>2480</v>
+        <v>2596</v>
       </c>
       <c r="F68" s="2">
-        <v>0.59999999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="69" ht="14.25">
       <c r="E69" s="7">
-        <v>2560</v>
+        <v>2676</v>
       </c>
       <c r="F69" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.52000000000000002</v>
       </c>
     </row>
     <row r="70" ht="14.25">
       <c r="E70" s="7">
-        <v>2640</v>
+        <v>2756</v>
       </c>
       <c r="F70" s="2">
-        <v>0.52000000000000002</v>
+        <v>0.47999999999999998</v>
       </c>
     </row>
     <row r="71" ht="14.25">
       <c r="E71" s="7">
-        <v>2720</v>
+        <v>2836</v>
       </c>
       <c r="F71" s="2">
-        <v>0.47999999999999998</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="72" ht="14.25">
       <c r="E72" s="7">
-        <v>2800</v>
+        <v>2916</v>
       </c>
       <c r="F72" s="2">
-        <v>0.44</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="73" ht="14.25">
       <c r="E73" s="7">
-        <v>2880</v>
+        <v>2996</v>
       </c>
       <c r="F73" s="2">
         <v>0.40000000000000002</v>
@@ -3623,23 +3616,23 @@
     </row>
     <row r="74" ht="14.25">
       <c r="E74" s="7">
-        <v>2960</v>
+        <v>3076</v>
       </c>
       <c r="F74" s="2">
-        <v>0.40000000000000002</v>
+        <v>0.35999999999999999</v>
       </c>
     </row>
     <row r="75" ht="14.25">
       <c r="E75" s="7">
-        <v>3040</v>
+        <v>3156</v>
       </c>
       <c r="F75" s="2">
-        <v>0.35999999999999999</v>
+        <v>0.32000000000000001</v>
       </c>
     </row>
     <row r="76" ht="14.25">
       <c r="E76" s="7">
-        <v>3120</v>
+        <v>3236</v>
       </c>
       <c r="F76" s="2">
         <v>0.32000000000000001</v>
@@ -3647,31 +3640,31 @@
     </row>
     <row r="77" ht="14.25">
       <c r="E77" s="7">
-        <v>3200</v>
+        <v>3316</v>
       </c>
       <c r="F77" s="2">
-        <v>0.32000000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="78" ht="14.25">
       <c r="E78" s="7">
-        <v>3280</v>
+        <v>3436</v>
       </c>
       <c r="F78" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.23999999999999999</v>
       </c>
     </row>
     <row r="79" ht="14.25">
       <c r="E79" s="7">
-        <v>3400</v>
+        <v>3556</v>
       </c>
       <c r="F79" s="2">
-        <v>0.23999999999999999</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="80" ht="14.25">
       <c r="E80" s="7">
-        <v>3520</v>
+        <v>3716</v>
       </c>
       <c r="F80" s="2">
         <v>0.20000000000000001</v>
@@ -3679,15 +3672,15 @@
     </row>
     <row r="81" ht="14.25">
       <c r="E81" s="7">
-        <v>3680</v>
+        <v>3876</v>
       </c>
       <c r="F81" s="2">
-        <v>0.20000000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="82" ht="14.25">
       <c r="E82" s="7">
-        <v>3840</v>
+        <v>3956</v>
       </c>
       <c r="F82" s="2">
         <v>0.16</v>
@@ -3695,15 +3688,15 @@
     </row>
     <row r="83" ht="14.25">
       <c r="E83" s="7">
-        <v>3920</v>
+        <v>4156</v>
       </c>
       <c r="F83" s="2">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="84" ht="14.25">
       <c r="E84" s="7">
-        <v>4120</v>
+        <v>4356</v>
       </c>
       <c r="F84" s="2">
         <v>0.12</v>
@@ -3711,15 +3704,15 @@
     </row>
     <row r="85" ht="14.25">
       <c r="E85" s="7">
-        <v>4320</v>
+        <v>4556</v>
       </c>
       <c r="F85" s="2">
-        <v>0.12</v>
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="86" ht="14.25">
       <c r="E86" s="7">
-        <v>4520</v>
+        <v>4676</v>
       </c>
       <c r="F86" s="2">
         <v>0.080000000000000002</v>
@@ -3727,7 +3720,7 @@
     </row>
     <row r="87" ht="14.25">
       <c r="E87" s="7">
-        <v>4640</v>
+        <v>4796</v>
       </c>
       <c r="F87" s="2">
         <v>0.080000000000000002</v>
@@ -3735,15 +3728,15 @@
     </row>
     <row r="88" ht="14.25">
       <c r="E88" s="7">
-        <v>4760</v>
+        <v>5116</v>
       </c>
       <c r="F88" s="2">
-        <v>0.080000000000000002</v>
+        <v>0.040000000000000001</v>
       </c>
     </row>
     <row r="89" ht="14.25">
       <c r="E89" s="7">
-        <v>5080</v>
+        <v>5356</v>
       </c>
       <c r="F89" s="2">
         <v>0.040000000000000001</v>
@@ -3751,7 +3744,7 @@
     </row>
     <row r="90" ht="14.25">
       <c r="E90" s="7">
-        <v>5320</v>
+        <v>5636</v>
       </c>
       <c r="F90" s="2">
         <v>0.040000000000000001</v>
@@ -3759,7 +3752,7 @@
     </row>
     <row r="91" ht="14.25">
       <c r="E91" s="7">
-        <v>5600</v>
+        <v>5876</v>
       </c>
       <c r="F91" s="2">
         <v>0.040000000000000001</v>
@@ -3767,7 +3760,7 @@
     </row>
     <row r="92" ht="14.25">
       <c r="E92" s="7">
-        <v>5840</v>
+        <v>6196</v>
       </c>
       <c r="F92" s="2">
         <v>0.040000000000000001</v>
@@ -3775,28 +3768,21 @@
     </row>
     <row r="93" ht="14.25">
       <c r="E93" s="7">
-        <v>6160</v>
+        <v>6356</v>
       </c>
       <c r="F93" s="2">
-        <v>0.040000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" ht="14.25">
       <c r="E94" s="7">
-        <v>6320</v>
+        <v>6596</v>
       </c>
       <c r="F94" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="95" ht="14.25">
-      <c r="E95" s="7">
-        <v>6560</v>
-      </c>
-      <c r="F95" s="2">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="95" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/20240321circuiti2/circuiti_2_dati.xlsx
+++ b/20240321circuiti2/circuiti_2_dati.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RC_vecchio" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="RC" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="LR" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="RCL sottosmorzato" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="RCL sovrasmorzato" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="RCL critico" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -127,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
@@ -147,12 +148,6 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2975,148 +2970,148 @@
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7">
         <v>4</v>
       </c>
       <c r="F3" s="8">
         <v>2.2799999999999998</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7">
         <v>8</v>
       </c>
       <c r="F4" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7">
         <v>12</v>
       </c>
       <c r="F5" s="8">
         <v>5.7199999999999998</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7">
         <v>16</v>
       </c>
       <c r="F6" s="8">
         <v>6.4800000000000004</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7">
         <v>20</v>
       </c>
       <c r="F7" s="8">
         <v>6.9199999999999999</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7">
         <v>24</v>
       </c>
       <c r="F8" s="8">
         <v>7.2000000000000002</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7">
         <v>28</v>
       </c>
       <c r="F9" s="8">
         <v>7.3600000000000003</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7">
         <v>32</v>
       </c>
       <c r="F10" s="8">
         <v>7.4400000000000004</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7">
         <v>36</v>
       </c>
       <c r="F11" s="8">
         <v>7.4800000000000004</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" ht="14.25">
       <c r="E12" s="7">
@@ -3789,4 +3784,682 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4">
+        <v>1760</v>
+      </c>
+      <c r="B2" s="4">
+        <v>99</v>
+      </c>
+      <c r="C2" s="4">
+        <v>82</v>
+      </c>
+      <c r="D2" s="6">
+        <v>58.5</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.35999999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.7999999999999998</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.3999999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.8799999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.7200000000000002</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3.0800000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3.3999999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3.6800000000000002</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4.1600000000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15">
+        <v>48</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16">
+        <v>52</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17">
+        <v>56</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4.7199999999999998</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18">
+        <v>60</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4.8799999999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19">
+        <v>64</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20">
+        <v>68</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5.0800000000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21">
+        <v>72</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5.1600000000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22">
+        <v>76</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5.2400000000000002</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23">
+        <v>80</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5.2800000000000002</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24">
+        <v>84</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5.3600000000000003</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25">
+        <v>88</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5.3600000000000003</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26">
+        <v>92</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5.4000000000000004</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27">
+        <v>96</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5.4000000000000004</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5.4000000000000004</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29">
+        <v>104</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5.3600000000000003</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30">
+        <v>108</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5.3600000000000003</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31">
+        <v>112</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5.3200000000000003</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32">
+        <v>116</v>
+      </c>
+      <c r="F32" s="2">
+        <v>5.2800000000000002</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33">
+        <v>120</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5.2400000000000002</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34">
+        <v>124</v>
+      </c>
+      <c r="F34" s="2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35">
+        <v>128</v>
+      </c>
+      <c r="F35" s="2">
+        <v>5.1600000000000001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36">
+        <v>132</v>
+      </c>
+      <c r="F36" s="2">
+        <v>5.0800000000000001</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37">
+        <v>136</v>
+      </c>
+      <c r="F37" s="2">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38">
+        <v>140</v>
+      </c>
+      <c r="F38" s="2">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39">
+        <v>144</v>
+      </c>
+      <c r="F39" s="2">
+        <v>4.8799999999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40">
+        <v>148</v>
+      </c>
+      <c r="F40" s="2">
+        <v>4.7999999999999998</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41">
+        <v>152</v>
+      </c>
+      <c r="F41" s="2">
+        <v>4.7599999999999998</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42">
+        <v>156</v>
+      </c>
+      <c r="F42" s="2">
+        <v>4.6799999999999997</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43">
+        <v>160</v>
+      </c>
+      <c r="F43" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44">
+        <v>166</v>
+      </c>
+      <c r="F44" s="2">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45">
+        <v>172</v>
+      </c>
+      <c r="F45" s="2">
+        <v>4.3200000000000003</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46">
+        <v>180</v>
+      </c>
+      <c r="F46" s="2">
+        <v>4.1600000000000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47">
+        <v>186</v>
+      </c>
+      <c r="F47" s="2">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48">
+        <v>194</v>
+      </c>
+      <c r="F48" s="2">
+        <v>3.8399999999999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49">
+        <v>200</v>
+      </c>
+      <c r="F49" s="2">
+        <v>3.7599999999999998</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50">
+        <v>210</v>
+      </c>
+      <c r="F50" s="2">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51">
+        <v>220</v>
+      </c>
+      <c r="F51" s="2">
+        <v>3.3199999999999998</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52">
+        <v>230</v>
+      </c>
+      <c r="F52" s="2">
+        <v>3.1200000000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53">
+        <v>240</v>
+      </c>
+      <c r="F53" s="2">
+        <v>2.9199999999999999</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54">
+        <v>250</v>
+      </c>
+      <c r="F54" s="2">
+        <v>2.7200000000000002</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55">
+        <v>260</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2.5600000000000001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56">
+        <v>270</v>
+      </c>
+      <c r="F56" s="2">
+        <v>2.3599999999999999</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57">
+        <v>280</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58">
+        <v>290</v>
+      </c>
+      <c r="F58" s="2">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59">
+        <v>300</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1.9199999999999999</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60">
+        <v>310</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61">
+        <v>320</v>
+      </c>
+      <c r="F61" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62">
+        <v>330</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63">
+        <v>340</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1.3999999999999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64">
+        <v>350</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65">
+        <v>360</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66">
+        <v>370</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67">
+        <v>380</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68">
+        <v>390</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0.92000000000000004</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69">
+        <v>400</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0.83999999999999997</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70">
+        <v>410</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71">
+        <v>420</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0.71999999999999997</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72">
+        <v>430</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0.68000000000000005</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73">
+        <v>440</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0.59999999999999998</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74">
+        <v>450</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75">
+        <v>460</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0.52000000000000002</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76">
+        <v>470</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0.47999999999999998</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77">
+        <v>480</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="78"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/20240321circuiti2/circuiti_2_dati.xlsx
+++ b/20240321circuiti2/circuiti_2_dati.xlsx
@@ -128,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
@@ -144,9 +144,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
@@ -3793,10 +3790,10 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3865,167 +3862,167 @@
     </row>
     <row r="4">
       <c r="E4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2">
-        <v>2.7999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="5">
       <c r="E5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2">
-        <v>8.8000000000000007</v>
+        <v>1.3999999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="E6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2">
-        <v>1.3999999999999999</v>
+        <v>1.8799999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="E7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
-        <v>1.8799999999999999</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="8">
       <c r="E8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
-        <v>2.3199999999999998</v>
+        <v>2.7200000000000002</v>
       </c>
     </row>
     <row r="9">
       <c r="E9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2">
-        <v>2.7200000000000002</v>
+        <v>3.0800000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="E10">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2">
-        <v>3.0800000000000001</v>
+        <v>3.3999999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="E11">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2">
-        <v>3.3999999999999999</v>
+        <v>3.6800000000000002</v>
       </c>
     </row>
     <row r="12">
       <c r="E12">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2">
-        <v>3.6800000000000002</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="13">
       <c r="E13">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F13" s="2">
-        <v>3.96</v>
+        <v>4.1600000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="E14">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2">
-        <v>4.1600000000000001</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="15">
       <c r="E15">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="16">
       <c r="E16">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F16" s="2">
-        <v>4.5599999999999996</v>
+        <v>4.7199999999999998</v>
       </c>
     </row>
     <row r="17">
       <c r="E17">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2">
-        <v>4.7199999999999998</v>
+        <v>4.8799999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="E18">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F18" s="2">
-        <v>4.8799999999999999</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="19">
       <c r="E19">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2">
-        <v>5.04</v>
+        <v>5.0800000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="E20">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F20" s="2">
-        <v>5.0800000000000001</v>
+        <v>5.1600000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="E21">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F21" s="2">
-        <v>5.1600000000000001</v>
+        <v>5.2400000000000002</v>
       </c>
     </row>
     <row r="22">
       <c r="E22">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F22" s="2">
-        <v>5.2400000000000002</v>
+        <v>5.2800000000000002</v>
       </c>
     </row>
     <row r="23">
       <c r="E23">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F23" s="2">
-        <v>5.2800000000000002</v>
+        <v>5.3600000000000003</v>
       </c>
     </row>
     <row r="24">
       <c r="E24">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F24" s="2">
         <v>5.3600000000000003</v>
@@ -4033,15 +4030,15 @@
     </row>
     <row r="25">
       <c r="E25">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F25" s="2">
-        <v>5.3600000000000003</v>
+        <v>5.4000000000000004</v>
       </c>
     </row>
     <row r="26">
       <c r="E26">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F26" s="2">
         <v>5.4000000000000004</v>
@@ -4049,7 +4046,7 @@
     </row>
     <row r="27">
       <c r="E27">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F27" s="2">
         <v>5.4000000000000004</v>
@@ -4057,15 +4054,15 @@
     </row>
     <row r="28">
       <c r="E28">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F28" s="2">
-        <v>5.4000000000000004</v>
+        <v>5.3600000000000003</v>
       </c>
     </row>
     <row r="29">
       <c r="E29">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F29" s="2">
         <v>5.3600000000000003</v>
@@ -4073,389 +4070,381 @@
     </row>
     <row r="30">
       <c r="E30">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F30" s="2">
-        <v>5.3600000000000003</v>
+        <v>5.3200000000000003</v>
       </c>
     </row>
     <row r="31">
       <c r="E31">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F31" s="2">
-        <v>5.3200000000000003</v>
+        <v>5.2800000000000002</v>
       </c>
     </row>
     <row r="32">
       <c r="E32">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F32" s="2">
-        <v>5.2800000000000002</v>
+        <v>5.2400000000000002</v>
       </c>
     </row>
     <row r="33">
       <c r="E33">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F33" s="2">
-        <v>5.2400000000000002</v>
+        <v>5.2000000000000002</v>
       </c>
     </row>
     <row r="34">
       <c r="E34">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F34" s="2">
-        <v>520</v>
+        <v>5.1600000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="E35">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F35" s="2">
-        <v>5.1600000000000001</v>
+        <v>5.0800000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="E36">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F36" s="2">
-        <v>5.0800000000000001</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="37">
       <c r="E37">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F37" s="2">
-        <v>5.04</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="38">
       <c r="E38">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F38" s="2">
-        <v>4.96</v>
+        <v>4.8799999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="E39">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F39" s="2">
-        <v>4.8799999999999999</v>
+        <v>4.7999999999999998</v>
       </c>
     </row>
     <row r="40">
       <c r="E40">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F40" s="2">
-        <v>4.7999999999999998</v>
+        <v>4.7599999999999998</v>
       </c>
     </row>
     <row r="41">
       <c r="E41">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F41" s="2">
-        <v>4.7599999999999998</v>
+        <v>4.6799999999999997</v>
       </c>
     </row>
     <row r="42">
       <c r="E42">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F42" s="2">
-        <v>4.6799999999999997</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="43">
       <c r="E43">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F43" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="44">
       <c r="E44">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F44" s="2">
-        <v>4.4800000000000004</v>
+        <v>4.3200000000000003</v>
       </c>
     </row>
     <row r="45">
       <c r="E45">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F45" s="2">
-        <v>4.3200000000000003</v>
+        <v>4.1600000000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="E46">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F46" s="2">
-        <v>4.1600000000000001</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="47">
       <c r="E47">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F47" s="2">
-        <v>4.04</v>
+        <v>3.8399999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="E48">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F48" s="2">
-        <v>3.8399999999999999</v>
+        <v>3.7599999999999998</v>
       </c>
     </row>
     <row r="49">
       <c r="E49">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F49" s="2">
-        <v>3.7599999999999998</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="50">
       <c r="E50">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F50" s="2">
-        <v>3.52</v>
+        <v>3.3199999999999998</v>
       </c>
     </row>
     <row r="51">
       <c r="E51">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F51" s="2">
-        <v>3.3199999999999998</v>
+        <v>3.1200000000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="E52">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F52" s="2">
-        <v>3.1200000000000001</v>
+        <v>2.9199999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="E53">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="F53" s="2">
-        <v>2.9199999999999999</v>
+        <v>2.7200000000000002</v>
       </c>
     </row>
     <row r="54">
       <c r="E54">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F54" s="2">
-        <v>2.7200000000000002</v>
+        <v>2.5600000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="E55">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F55" s="2">
-        <v>2.5600000000000001</v>
+        <v>2.3599999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="E56">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F56" s="2">
-        <v>2.3599999999999999</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="57">
       <c r="E57">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F57" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="58">
       <c r="E58">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F58" s="2">
-        <v>2.04</v>
+        <v>1.9199999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="E59">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F59" s="2">
-        <v>1.9199999999999999</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="60">
       <c r="E60">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="F60" s="2">
-        <v>1.76</v>
+        <v>1.6399999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="E61">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F61" s="2">
-        <v>164</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="62">
       <c r="E62">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="F62" s="2">
-        <v>1.52</v>
+        <v>1.3999999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="E63">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="F63" s="2">
-        <v>1.3999999999999999</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="64">
       <c r="E64">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F64" s="2">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="65">
       <c r="E65">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="F65" s="2">
-        <v>1.2</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="E66">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="F66" s="2">
-        <v>1.1200000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="E67">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F67" s="2">
-        <v>1</v>
+        <v>0.92000000000000004</v>
       </c>
     </row>
     <row r="68">
       <c r="E68">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="F68" s="2">
-        <v>0.92000000000000004</v>
+        <v>0.83999999999999997</v>
       </c>
     </row>
     <row r="69">
       <c r="E69">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F69" s="2">
-        <v>0.83999999999999997</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="70">
       <c r="E70">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="F70" s="2">
-        <v>0.80000000000000004</v>
+        <v>0.71999999999999997</v>
       </c>
     </row>
     <row r="71">
       <c r="E71">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="F71" s="2">
-        <v>0.71999999999999997</v>
+        <v>0.68000000000000005</v>
       </c>
     </row>
     <row r="72">
       <c r="E72">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="F72" s="2">
-        <v>0.68000000000000005</v>
+        <v>0.59999999999999998</v>
       </c>
     </row>
     <row r="73">
       <c r="E73">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="F73" s="2">
-        <v>0.59999999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="74">
       <c r="E74">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="F74" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.52000000000000002</v>
       </c>
     </row>
     <row r="75">
       <c r="E75">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="F75" s="2">
-        <v>0.52000000000000002</v>
+        <v>0.47999999999999998</v>
       </c>
     </row>
     <row r="76">
       <c r="E76">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="F76" s="2">
-        <v>0.47999999999999998</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="E77">
-        <v>480</v>
-      </c>
-      <c r="F77" s="2">
         <v>0.44</v>
       </c>
     </row>
-    <row r="78"/>
+    <row r="77"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/20240321circuiti2/circuiti_2_dati.xlsx
+++ b/20240321circuiti2/circuiti_2_dati.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">R (Kohm)</t>
   </si>
@@ -91,6 +91,9 @@
   <si>
     <t xml:space="preserve">Freq (Hz)</t>
   </si>
+  <si>
+    <t xml:space="preserve">V REALE (volt)</t>
+  </si>
 </sst>
 </file>
 
@@ -128,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
@@ -144,6 +147,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
@@ -3791,6 +3797,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="9" max="9" width="14.140625"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
@@ -3817,8 +3826,8 @@
       <c r="H1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>22</v>
+      <c r="I1" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>23</v>
@@ -3847,7 +3856,9 @@
         <v>8</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="4">
+        <v>3.9649999999999999</v>
+      </c>
       <c r="J2" s="4">
         <v>20</v>
       </c>

--- a/20240321circuiti2/circuiti_2_dati.xlsx
+++ b/20240321circuiti2/circuiti_2_dati.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RC_vecchio" sheetId="1" state="visible" r:id="rId1"/>
@@ -1961,7 +1961,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2377,7 +2377,7 @@
         <v>640</v>
       </c>
       <c r="F46">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" ht="14.25">

--- a/20240321circuiti2/circuiti_2_dati.xlsx
+++ b/20240321circuiti2/circuiti_2_dati.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="RC_vecchio" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="RCL sottosmorzato" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="RCL sovrasmorzato" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="RCL critico" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="conf2 ponte e resistenza deltaV" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="conf condensatore " sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">R (Kohm)</t>
   </si>
@@ -94,6 +97,33 @@
   <si>
     <t xml:space="preserve">V REALE (volt)</t>
   </si>
+  <si>
+    <t xml:space="preserve">tg (ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vg (Volt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R (Mohm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tab (ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V </t>
+  </si>
+  <si>
+    <t>Vfix</t>
+  </si>
+  <si>
+    <t>0.2/sqrt12</t>
+  </si>
+  <si>
+    <t>VMAT</t>
+  </si>
+  <si>
+    <t>0.4/sqrt12</t>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
@@ -149,9 +179,13 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3826,7 +3860,7 @@
       <c r="H1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -4462,4 +4496,387 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>-2.04</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>-1.6399999999999999</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="B3">
+        <v>-1.8200000000000001</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3">
+        <v>1.8</v>
+      </c>
+      <c r="F3">
+        <v>-1.3200000000000001</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4">
+        <v>3.7999999999999998</v>
+      </c>
+      <c r="B4">
+        <v>-0.81999999999999995</v>
+      </c>
+      <c r="E4">
+        <v>3.2999999999999998</v>
+      </c>
+      <c r="F4">
+        <v>-0.64000000000000001</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5">
+        <v>5.2000000000000002</v>
+      </c>
+      <c r="B5">
+        <v>0.02</v>
+      </c>
+      <c r="E5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6">
+        <v>6.5999999999999996</v>
+      </c>
+      <c r="B6">
+        <v>0.64000000000000001</v>
+      </c>
+      <c r="E6">
+        <v>6.4000000000000004</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7">
+        <v>10.4</v>
+      </c>
+      <c r="B7">
+        <v>0.71999999999999997</v>
+      </c>
+      <c r="E7">
+        <v>10.800000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8">
+        <v>13.5</v>
+      </c>
+      <c r="B8">
+        <v>0.76000000000000001</v>
+      </c>
+      <c r="E8">
+        <v>12.6</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9">
+        <v>15.1</v>
+      </c>
+      <c r="B9">
+        <v>0.02</v>
+      </c>
+      <c r="E9">
+        <v>14.9</v>
+      </c>
+      <c r="F9">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="B10">
+        <v>-0.59999999999999998</v>
+      </c>
+      <c r="E10">
+        <v>15.6</v>
+      </c>
+      <c r="F10">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="B11">
+        <v>-1.4199999999999999</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>-0.85999999999999999</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B12">
+        <v>-1.78</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>-1.28</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>-2.04</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>-1.5600000000000001</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>-1.6399999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>-2.04</v>
+      </c>
+      <c r="C2">
+        <v>-1.6399999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4">
+        <v>1.6000000000000001</v>
+      </c>
+      <c r="B3">
+        <v>-1.8200000000000001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4">
+        <v>3.7999999999999998</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-0.81999999999999995</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4">
+        <v>5.2000000000000002</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4">
+        <v>6.5999999999999996</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.64000000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.71999999999999997</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.76000000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-0.59999999999999998</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-1.4199999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B12" s="4">
+        <v>-1.78</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4">
+        <v>-2.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>-1.3999999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/20240321circuiti2/circuiti_2_dati.xlsx
+++ b/20240321circuiti2/circuiti_2_dati.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="RC_vecchio" sheetId="1" state="visible" r:id="rId1"/>
@@ -179,13 +179,15 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4528,186 +4530,186 @@
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="9">
         <v>-2.04</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="10">
         <v>0.91600000000000004</v>
       </c>
       <c r="D2">
         <v>50</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>-1.6399999999999999</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>1.6000000000000001</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>-1.8200000000000001</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3">
+      <c r="D3" s="5"/>
+      <c r="E3" s="3">
         <v>1.8</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>-1.3200000000000001</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3.7999999999999998</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>-0.81999999999999995</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>3.2999999999999998</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>-0.64000000000000001</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>5.2000000000000002</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.02</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.02</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>6.5999999999999996</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0.64000000000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>6.4000000000000004</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>10.4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0.71999999999999997</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>10.800000000000001</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>13.5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.76000000000000001</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>12.6</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>15.1</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0.02</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>14.9</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>-0.02</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>-0.59999999999999998</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>15.6</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>-0.12</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>-1.4199999999999999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>17</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>-0.85999999999999999</v>
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>-1.78</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>18</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>-1.28</v>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>20</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>-2.04</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>19</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>-1.5600000000000001</v>
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="E14">
+      <c r="E14" s="3">
         <v>20</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>-1.6399999999999999</v>
       </c>
     </row>
@@ -4726,7 +4728,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -4743,7 +4745,7 @@
       <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>-2.04</v>
       </c>
       <c r="C2">
@@ -4856,7 +4858,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
